--- a/5/1/1/1/Base monetaria - saldos 2021 - Diaria.xlsx
+++ b/5/1/1/1/Base monetaria - saldos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t>Serie</t>
   </si>
@@ -392,6 +392,69 @@
   </si>
   <si>
     <t>30-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>02-07-2021</t>
+  </si>
+  <si>
+    <t>05-07-2021</t>
+  </si>
+  <si>
+    <t>06-07-2021</t>
+  </si>
+  <si>
+    <t>07-07-2021</t>
+  </si>
+  <si>
+    <t>08-07-2021</t>
+  </si>
+  <si>
+    <t>09-07-2021</t>
+  </si>
+  <si>
+    <t>12-07-2021</t>
+  </si>
+  <si>
+    <t>13-07-2021</t>
+  </si>
+  <si>
+    <t>14-07-2021</t>
+  </si>
+  <si>
+    <t>15-07-2021</t>
+  </si>
+  <si>
+    <t>19-07-2021</t>
+  </si>
+  <si>
+    <t>20-07-2021</t>
+  </si>
+  <si>
+    <t>21-07-2021</t>
+  </si>
+  <si>
+    <t>22-07-2021</t>
+  </si>
+  <si>
+    <t>23-07-2021</t>
+  </si>
+  <si>
+    <t>26-07-2021</t>
+  </si>
+  <si>
+    <t>27-07-2021</t>
+  </si>
+  <si>
+    <t>28-07-2021</t>
+  </si>
+  <si>
+    <t>29-07-2021</t>
+  </si>
+  <si>
+    <t>30-07-2021</t>
   </si>
 </sst>
 </file>
@@ -749,7 +812,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B125"/>
+  <dimension ref="A1:B146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1755,6 +1818,174 @@
         <v>32195</v>
       </c>
     </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126">
+        <v>31814</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127">
+        <v>33273</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128">
+        <v>31438</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129">
+        <v>30841</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130">
+        <v>31069</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131">
+        <v>31529</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132">
+        <v>34707</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133">
+        <v>36496</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134">
+        <v>36041</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135">
+        <v>34922</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136">
+        <v>29340</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137">
+        <v>28737</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138">
+        <v>28478</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139">
+        <v>27673</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140">
+        <v>26816</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141">
+        <v>26330</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142">
+        <v>25454</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143">
+        <v>24253</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144">
+        <v>24428</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145">
+        <v>24524</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <v>21743</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/1/1/1/Base monetaria - saldos 2021 - Diaria.xlsx
+++ b/5/1/1/1/Base monetaria - saldos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>Serie</t>
   </si>
@@ -455,6 +455,72 @@
   </si>
   <si>
     <t>30-07-2021</t>
+  </si>
+  <si>
+    <t>02-08-2021</t>
+  </si>
+  <si>
+    <t>03-08-2021</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
+  </si>
+  <si>
+    <t>05-08-2021</t>
+  </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>09-08-2021</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>13-08-2021</t>
+  </si>
+  <si>
+    <t>16-08-2021</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>20-08-2021</t>
+  </si>
+  <si>
+    <t>23-08-2021</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>30-08-2021</t>
+  </si>
+  <si>
+    <t>31-08-2021</t>
   </si>
 </sst>
 </file>
@@ -812,7 +878,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B146"/>
+  <dimension ref="A1:B168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1986,6 +2052,182 @@
         <v>21743</v>
       </c>
     </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>22337</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148">
+        <v>21351</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <v>22043</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150">
+        <v>21942</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <v>21122</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152">
+        <v>26613</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153">
+        <v>27137</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154">
+        <v>27260</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155">
+        <v>27140</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156">
+        <v>26028</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157">
+        <v>26318</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158">
+        <v>26351</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159">
+        <v>26435</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160">
+        <v>25174</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161">
+        <v>25592</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162">
+        <v>24987</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163">
+        <v>24934</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164">
+        <v>25574</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165">
+        <v>25498</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166">
+        <v>25248</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167">
+        <v>26492</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168">
+        <v>28297</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/1/1/1/Base monetaria - saldos 2021 - Diaria.xlsx
+++ b/5/1/1/1/Base monetaria - saldos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
     <t>Serie</t>
   </si>
@@ -521,6 +521,69 @@
   </si>
   <si>
     <t>31-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
+  </si>
+  <si>
+    <t>03-09-2021</t>
+  </si>
+  <si>
+    <t>06-09-2021</t>
+  </si>
+  <si>
+    <t>07-09-2021</t>
+  </si>
+  <si>
+    <t>08-09-2021</t>
+  </si>
+  <si>
+    <t>09-09-2021</t>
+  </si>
+  <si>
+    <t>10-09-2021</t>
+  </si>
+  <si>
+    <t>13-09-2021</t>
+  </si>
+  <si>
+    <t>14-09-2021</t>
+  </si>
+  <si>
+    <t>15-09-2021</t>
+  </si>
+  <si>
+    <t>16-09-2021</t>
+  </si>
+  <si>
+    <t>20-09-2021</t>
+  </si>
+  <si>
+    <t>21-09-2021</t>
+  </si>
+  <si>
+    <t>22-09-2021</t>
+  </si>
+  <si>
+    <t>23-09-2021</t>
+  </si>
+  <si>
+    <t>24-09-2021</t>
+  </si>
+  <si>
+    <t>27-09-2021</t>
+  </si>
+  <si>
+    <t>28-09-2021</t>
+  </si>
+  <si>
+    <t>29-09-2021</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
   </si>
 </sst>
 </file>
@@ -878,7 +941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B168"/>
+  <dimension ref="A1:B189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2228,6 +2291,174 @@
         <v>28297</v>
       </c>
     </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169">
+        <v>26205</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170">
+        <v>26663</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171">
+        <v>24088</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172">
+        <v>22639</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173">
+        <v>21243</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174">
+        <v>21049</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175">
+        <v>22751</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176">
+        <v>24337</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177">
+        <v>23745</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178">
+        <v>23232</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179">
+        <v>22938</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>180</v>
+      </c>
+      <c r="B180">
+        <v>24739</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181">
+        <v>23712</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>182</v>
+      </c>
+      <c r="B182">
+        <v>22480</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>183</v>
+      </c>
+      <c r="B183">
+        <v>23862</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>184</v>
+      </c>
+      <c r="B184">
+        <v>23803</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>185</v>
+      </c>
+      <c r="B185">
+        <v>23837</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>186</v>
+      </c>
+      <c r="B186">
+        <v>25358</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187">
+        <v>24715</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>188</v>
+      </c>
+      <c r="B188">
+        <v>25318</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>189</v>
+      </c>
+      <c r="B189">
+        <v>23504</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
